--- a/Data/EC/NIT-9011793342.xlsx
+++ b/Data/EC/NIT-9011793342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9313FC0C-68FE-4640-A49C-C4D010A64BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4474470-752F-4651-9E85-7A4AECCB8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3139EDB8-9774-44F3-B63C-C9DF55C2B53A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF16DC0-9FB5-4FB8-ADB8-1F257D43AF73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,88 +65,88 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7919786</t>
+  </si>
+  <si>
+    <t>JORGE ANDRES GIRALDO SUAREZ</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>1040510476</t>
+  </si>
+  <si>
+    <t>EVA SANDRITH BARON LUCAS</t>
+  </si>
+  <si>
+    <t>73184471</t>
+  </si>
+  <si>
+    <t>DIOGENES ALFONSO PIÑA GUERRERO</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>45546890</t>
+  </si>
+  <si>
+    <t>KEILA ROSA GAVIRIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1049393176</t>
+  </si>
+  <si>
+    <t>ALEXANDER CARRILLO VALENCIA</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>1102883290</t>
   </si>
   <si>
     <t>ANUAR ANDRES CASTELLAR RIOS</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>13197398</t>
   </si>
   <si>
     <t>OMAR RINCON URBINA</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1049393176</t>
-  </si>
-  <si>
-    <t>ALEXANDER CARRILLO VALENCIA</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>45546890</t>
-  </si>
-  <si>
-    <t>KEILA ROSA GAVIRIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>73184471</t>
-  </si>
-  <si>
-    <t>DIOGENES ALFONSO PIÑA GUERRERO</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>7919786</t>
-  </si>
-  <si>
-    <t>JORGE ANDRES GIRALDO SUAREZ</t>
-  </si>
-  <si>
-    <t>1040510476</t>
-  </si>
-  <si>
-    <t>EVA SANDRITH BARON LUCAS</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C80B33-88CD-7855-8F3C-F06BD9291256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE293698-CA5E-D9A9-F67E-522241D8D925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,28 +911,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E526D144-CEC5-44DB-8EA7-0DFBFCC5209B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348726DB-F161-48AD-BF18-147ECBADE07E}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -945,7 +945,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -956,7 +956,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -967,7 +967,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -978,8 +978,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1010,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1026,8 +1026,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>40</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1098,18 +1098,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35120</v>
@@ -1121,18 +1121,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>35120</v>
@@ -1144,21 +1144,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>14048</v>
+        <v>35120</v>
       </c>
       <c r="G19" s="18">
         <v>878000</v>
@@ -1167,21 +1167,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>35120</v>
+        <v>28096</v>
       </c>
       <c r="G20" s="18">
         <v>878000</v>
@@ -1190,18 +1190,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>35120</v>
@@ -1213,21 +1213,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>7024</v>
+        <v>35120</v>
       </c>
       <c r="G22" s="18">
         <v>878000</v>
@@ -1236,18 +1236,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>35120</v>
@@ -1259,18 +1259,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>35120</v>
@@ -1282,41 +1282,41 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>35120</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>878000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>35120</v>
@@ -1328,18 +1328,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>35120</v>
@@ -1351,18 +1351,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>35120</v>
@@ -1374,21 +1374,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18">
-        <v>35120</v>
+        <v>7024</v>
       </c>
       <c r="G29" s="18">
         <v>878000</v>
@@ -1397,21 +1397,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>35120</v>
+        <v>28096</v>
       </c>
       <c r="G30" s="18">
         <v>878000</v>
@@ -1420,18 +1420,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>35120</v>
@@ -1443,18 +1443,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>35120</v>
@@ -1466,18 +1466,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>35120</v>
@@ -1489,18 +1489,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>35120</v>
@@ -1512,18 +1512,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>35120</v>
@@ -1535,18 +1535,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>35120</v>
@@ -1558,18 +1558,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
         <v>35120</v>
@@ -1581,18 +1581,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>35120</v>
@@ -1604,18 +1604,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
         <v>35120</v>
@@ -1627,18 +1627,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
         <v>35120</v>
@@ -1650,18 +1650,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
         <v>35120</v>
@@ -1673,18 +1673,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>35120</v>
@@ -1696,15 +1696,15 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>34</v>
@@ -1719,18 +1719,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>35120</v>
@@ -1742,18 +1742,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>35120</v>
@@ -1765,21 +1765,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F46" s="18">
-        <v>28096</v>
+        <v>35120</v>
       </c>
       <c r="G46" s="18">
         <v>878000</v>
@@ -1788,21 +1788,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F47" s="24">
-        <v>28096</v>
+        <v>14048</v>
       </c>
       <c r="G47" s="24">
         <v>878000</v>
@@ -1811,7 +1811,7 @@
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="32" t="s">
         <v>46</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="32" t="s">
         <v>45</v>
       </c>

--- a/Data/EC/NIT-9011793342.xlsx
+++ b/Data/EC/NIT-9011793342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4474470-752F-4651-9E85-7A4AECCB8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B43064-E545-49ED-83C3-C784C5958151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF16DC0-9FB5-4FB8-ADB8-1F257D43AF73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09887CDB-AA34-4F5D-8C7A-8B4EE28EAAD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,51 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1102883290</t>
+  </si>
+  <si>
+    <t>ANUAR ANDRES CASTELLAR RIOS</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>13197398</t>
+  </si>
+  <si>
+    <t>OMAR RINCON URBINA</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>73184471</t>
+  </si>
+  <si>
+    <t>DIOGENES ALFONSO PIÑA GUERRERO</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>45546890</t>
+  </si>
+  <si>
+    <t>KEILA ROSA GAVIRIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1049393176</t>
+  </si>
+  <si>
+    <t>ALEXANDER CARRILLO VALENCIA</t>
+  </si>
+  <si>
     <t>7919786</t>
   </si>
   <si>
@@ -80,73 +125,28 @@
     <t>EVA SANDRITH BARON LUCAS</t>
   </si>
   <si>
-    <t>73184471</t>
-  </si>
-  <si>
-    <t>DIOGENES ALFONSO PIÑA GUERRERO</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>45546890</t>
-  </si>
-  <si>
-    <t>KEILA ROSA GAVIRIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1049393176</t>
-  </si>
-  <si>
-    <t>ALEXANDER CARRILLO VALENCIA</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
   </si>
   <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1102883290</t>
-  </si>
-  <si>
-    <t>ANUAR ANDRES CASTELLAR RIOS</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>13197398</t>
-  </si>
-  <si>
-    <t>OMAR RINCON URBINA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE293698-CA5E-D9A9-F67E-522241D8D925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A916151F-59C9-FEE1-BE40-83A66A80E28A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348726DB-F161-48AD-BF18-147ECBADE07E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243EABF6-C7DB-405F-9A22-DA26D7A07F02}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1103,13 +1103,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35120</v>
@@ -1126,13 +1126,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>35120</v>
@@ -1149,16 +1149,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
-        <v>35120</v>
+        <v>14048</v>
       </c>
       <c r="G19" s="18">
         <v>878000</v>
@@ -1172,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>28096</v>
+        <v>35120</v>
       </c>
       <c r="G20" s="18">
         <v>878000</v>
@@ -1195,13 +1195,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35120</v>
@@ -1218,13 +1218,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>35120</v>
@@ -1241,13 +1241,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>35120</v>
@@ -1264,16 +1264,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F24" s="18">
-        <v>35120</v>
+        <v>7024</v>
       </c>
       <c r="G24" s="18">
         <v>878000</v>
@@ -1287,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>35120</v>
@@ -1310,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>35120</v>
@@ -1333,13 +1333,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>35120</v>
@@ -1356,13 +1356,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>35120</v>
@@ -1379,16 +1379,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>7024</v>
+        <v>35120</v>
       </c>
       <c r="G29" s="18">
         <v>878000</v>
@@ -1402,16 +1402,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>28096</v>
+        <v>35120</v>
       </c>
       <c r="G30" s="18">
         <v>878000</v>
@@ -1425,13 +1425,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>35120</v>
@@ -1448,13 +1448,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>35120</v>
@@ -1471,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>35120</v>
@@ -1494,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>35120</v>
@@ -1517,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>35120</v>
@@ -1540,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>35120</v>
@@ -1563,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
         <v>35120</v>
@@ -1586,13 +1586,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
         <v>35120</v>
@@ -1609,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>35120</v>
@@ -1632,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>35120</v>
@@ -1655,13 +1655,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>35120</v>
@@ -1678,13 +1678,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
         <v>35120</v>
@@ -1701,10 +1701,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>34</v>
@@ -1724,13 +1724,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>35120</v>
@@ -1747,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>35120</v>
@@ -1770,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F46" s="18">
-        <v>35120</v>
+        <v>28096</v>
       </c>
       <c r="G46" s="18">
         <v>878000</v>
@@ -1793,16 +1793,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>32</v>
-      </c>
       <c r="F47" s="24">
-        <v>14048</v>
+        <v>28096</v>
       </c>
       <c r="G47" s="24">
         <v>878000</v>

--- a/Data/EC/NIT-9011793342.xlsx
+++ b/Data/EC/NIT-9011793342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B43064-E545-49ED-83C3-C784C5958151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E875BD6-ED5B-4F09-A1D0-A8AC309FCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09887CDB-AA34-4F5D-8C7A-8B4EE28EAAD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28F6A0F6-8878-4DA2-9AD5-1AB00AF0F203}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -260,7 +258,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,29 +454,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,19 +495,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A916151F-59C9-FEE1-BE40-83A66A80E28A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD03C0A3-40E8-66DD-7B2A-BB07E1ACAE5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243EABF6-C7DB-405F-9A22-DA26D7A07F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EC3AE4-EC85-400F-ADEC-1EB16567850F}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -934,49 +940,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -984,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011793342</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1060624</v>
       </c>
@@ -1085,18 +1091,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G16" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G16" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1108,18 +1114,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G17" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G17" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1131,18 +1137,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G18" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G18" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1154,18 +1160,18 @@
       <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>14048</v>
       </c>
-      <c r="G19" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1177,18 +1183,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G20" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G20" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1200,18 +1206,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G21" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G21" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1223,18 +1229,18 @@
       <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G22" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G22" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1246,18 +1252,18 @@
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G23" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G23" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1269,18 +1275,18 @@
       <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>7024</v>
       </c>
-      <c r="G24" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1292,18 +1298,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G25" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G25" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1315,18 +1321,18 @@
       <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G26" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G26" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1338,18 +1344,18 @@
       <c r="D27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G27" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G27" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1361,18 +1367,18 @@
       <c r="D28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G28" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G28" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1384,18 +1390,18 @@
       <c r="D29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G29" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G29" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1407,18 +1413,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G30" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G30" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1430,18 +1436,18 @@
       <c r="D31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G31" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G31" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1453,18 +1459,18 @@
       <c r="D32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G32" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G32" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1476,18 +1482,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G33" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G33" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1499,18 +1505,18 @@
       <c r="D34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G34" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G34" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1522,18 +1528,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G35" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G35" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1545,18 +1551,18 @@
       <c r="D36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G36" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G36" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1568,18 +1574,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G37" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G37" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1591,18 +1597,18 @@
       <c r="D38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G38" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G38" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1614,18 +1620,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G39" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G39" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1637,18 +1643,18 @@
       <c r="D40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G40" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G40" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1660,18 +1666,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G41" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G41" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1683,18 +1689,18 @@
       <c r="D42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G42" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G42" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1706,18 +1712,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G43" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G43" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1729,18 +1735,18 @@
       <c r="D44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G44" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G44" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1752,18 +1758,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="18">
-        <v>35120</v>
-      </c>
-      <c r="G45" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>35120</v>
+      </c>
+      <c r="G45" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1775,47 +1781,47 @@
       <c r="D46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>28096</v>
       </c>
-      <c r="G46" s="18">
-        <v>878000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>878000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="26">
         <v>28096</v>
       </c>
-      <c r="G47" s="24">
-        <v>878000</v>
-      </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
+      <c r="G47" s="26">
+        <v>878000</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="34"/>
       <c r="H52" s="1" t="s">
         <v>46</v>
       </c>
@@ -1823,10 +1829,10 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="34"/>
       <c r="H53" s="1" t="s">
         <v>47</v>
       </c>
